--- a/New.xlsx
+++ b/New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Glocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E4AFE8-60E9-4B49-984F-7B8E9CBBE178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE3A950-0527-4DCB-9A7F-A619F80CA68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10392" yWindow="1308" windowWidth="9864" windowHeight="8964" xr2:uid="{51B0B0F4-6A6E-4933-A430-216C780B4E2B}"/>
+    <workbookView xWindow="13140" yWindow="5592" windowWidth="9864" windowHeight="6084" xr2:uid="{51B0B0F4-6A6E-4933-A430-216C780B4E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -664,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E6" s="7">
         <v>400</v>
